--- a/plugins.evaluation/org.sidiff.repair.history.evaluation/notes/EvaluationParameters.xlsx
+++ b/plugins.evaluation/org.sidiff.repair.history.evaluation/notes/EvaluationParameters.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f29fdeb58a11645a/Uni/ReVision/Evaluierung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\sidiff\org.sidiff.repair.history.evaluation\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,9 +47,6 @@
     <t>Context Type</t>
   </si>
   <si>
-    <t>Complements</t>
-  </si>
-  <si>
     <t>Observable Repair (OR)</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Known UI</t>
+  </si>
+  <si>
+    <t>Complements (Repairs)</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,63 +626,63 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="R1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="W1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -703,7 +703,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="4">
         <v>3</v>
@@ -750,42 +750,42 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -823,13 +823,13 @@
     </row>
     <row r="7" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">

--- a/plugins.evaluation/org.sidiff.repair.history.evaluation/notes/EvaluationParameters.xlsx
+++ b/plugins.evaluation/org.sidiff.repair.history.evaluation/notes/EvaluationParameters.xlsx
@@ -56,12 +56,6 @@
     <t>Repair Matchings for OR</t>
   </si>
   <si>
-    <t>Abstract Repairs - Count</t>
-  </si>
-  <si>
-    <t>Abstract Repairs - Paths</t>
-  </si>
-  <si>
     <t>Abstract Repairs - Combinations</t>
   </si>
   <si>
@@ -147,6 +141,12 @@
   </si>
   <si>
     <t>Complements (Repairs)</t>
+  </si>
+  <si>
+    <t>Change Count (Historical-&gt;Resolved)</t>
+  </si>
+  <si>
+    <t>Repair Tree - Actions/Paths</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,8 +585,7 @@
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="7" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
@@ -595,12 +594,12 @@
     <col min="14" max="14" width="18.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="20" width="16.5703125" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="22" width="16.5703125" customWidth="1"/>
-    <col min="23" max="23" width="23" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="19" width="16.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" customWidth="1"/>
+    <col min="22" max="22" width="23" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -626,63 +625,63 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -697,31 +696,31 @@
         <v>11</v>
       </c>
       <c r="H2" s="1">
+        <v>300</v>
+      </c>
+      <c r="I2" s="1">
         <v>20</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>80</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4">
         <v>3</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>20</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>4</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>2</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>5</v>
-      </c>
-      <c r="P2" s="4">
-        <v>12</v>
       </c>
       <c r="Q2" s="4">
         <v>20</v>
@@ -750,42 +749,42 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -823,13 +822,13 @@
     </row>
     <row r="7" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
